--- a/invoice.xlsx
+++ b/invoice.xlsx
@@ -1,37 +1,708 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="221">
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Delivery/Shipment Charges</t>
+  </si>
+  <si>
+    <t>Main Date</t>
+  </si>
+  <si>
+    <t>Sender Pincode</t>
+  </si>
+  <si>
+    <t>Receiver Pincode</t>
+  </si>
+  <si>
+    <t>Porter_courier_invoice_CR75867151_Jan 2024.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1034196112 (1).pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1034196112.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1038239370.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1042901933.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1061121465.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1071497967.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1099935329.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1125298557.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1134338284.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1137214981.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1164672554.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1208749954.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1211319406.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1272375990.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1278195064.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1283531934.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1304652896.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1306339888.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1313488067.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1340959333.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1344758714.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1354351980.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1384142034.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1396323255.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1422508161.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1470126383.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1517725048.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1524853774.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1528696823.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1537586691.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1545877793.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1579978691.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1590696956.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1591407165.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1622495618.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1627932796.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1666775087.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1698099700.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1710176490.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1725600138.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1756882144.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1758272263.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1777710912.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1789228846.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1792453732.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1810738404.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1829734985.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1834693947.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1837539157.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1842868249.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1844775155.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1844935409.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1862635209.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1881049395.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1910136362.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1927312282.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1927515849.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1930175585.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1944321373.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1952018567.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1971218787.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1972885887.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1996754206.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN2001250704.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN2001524728.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN2060282435.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN2075552177.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN2075876364.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN2092093899.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN2109207680.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN2121813397.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN2133044232.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN2135404530.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1180750326.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1010736381.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1017378137.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1020644740.pdf</t>
+  </si>
+  <si>
+    <t>invoice_CRN1022999145.pdf</t>
+  </si>
+  <si>
+    <t>CR75867151</t>
+  </si>
+  <si>
+    <t>CRN1034196112</t>
+  </si>
+  <si>
+    <t>CRN1038239370</t>
+  </si>
+  <si>
+    <t>CRN1042901933</t>
+  </si>
+  <si>
+    <t>CRN1061121465</t>
+  </si>
+  <si>
+    <t>CRN1071497967</t>
+  </si>
+  <si>
+    <t>CRN1099935329</t>
+  </si>
+  <si>
+    <t>CRN1125298557</t>
+  </si>
+  <si>
+    <t>CRN1134338284</t>
+  </si>
+  <si>
+    <t>CRN1137214981</t>
+  </si>
+  <si>
+    <t>CRN1164672554</t>
+  </si>
+  <si>
+    <t>CRN1208749954</t>
+  </si>
+  <si>
+    <t>CRN1211319406</t>
+  </si>
+  <si>
+    <t>CRN1272375990</t>
+  </si>
+  <si>
+    <t>CRN1278195064</t>
+  </si>
+  <si>
+    <t>CRN1283531934</t>
+  </si>
+  <si>
+    <t>CRN1304652896</t>
+  </si>
+  <si>
+    <t>CRN1306339888</t>
+  </si>
+  <si>
+    <t>CRN1313488067</t>
+  </si>
+  <si>
+    <t>CRN1340959333</t>
+  </si>
+  <si>
+    <t>CRN1344758714</t>
+  </si>
+  <si>
+    <t>CRN1354351980</t>
+  </si>
+  <si>
+    <t>CRN1384142034</t>
+  </si>
+  <si>
+    <t>CRN1396323255</t>
+  </si>
+  <si>
+    <t>CRN1422508161</t>
+  </si>
+  <si>
+    <t>CRN1470126383</t>
+  </si>
+  <si>
+    <t>CRN1517725048</t>
+  </si>
+  <si>
+    <t>CRN1524853774</t>
+  </si>
+  <si>
+    <t>CRN1528696823</t>
+  </si>
+  <si>
+    <t>CRN1537586691</t>
+  </si>
+  <si>
+    <t>CRN1545877793</t>
+  </si>
+  <si>
+    <t>CRN1579978691</t>
+  </si>
+  <si>
+    <t>CRN1590696956</t>
+  </si>
+  <si>
+    <t>CRN1591407165</t>
+  </si>
+  <si>
+    <t>CRN1622495618</t>
+  </si>
+  <si>
+    <t>CRN1627932796</t>
+  </si>
+  <si>
+    <t>CRN1666775087</t>
+  </si>
+  <si>
+    <t>CRN1698099700</t>
+  </si>
+  <si>
+    <t>CRN1710176490</t>
+  </si>
+  <si>
+    <t>CRN1725600138</t>
+  </si>
+  <si>
+    <t>CRN1756882144</t>
+  </si>
+  <si>
+    <t>CRN1758272263</t>
+  </si>
+  <si>
+    <t>CRN1777710912</t>
+  </si>
+  <si>
+    <t>CRN1789228846</t>
+  </si>
+  <si>
+    <t>CRN1792453732</t>
+  </si>
+  <si>
+    <t>CRN1810738404</t>
+  </si>
+  <si>
+    <t>CRN1829734985</t>
+  </si>
+  <si>
+    <t>CRN1834693947</t>
+  </si>
+  <si>
+    <t>CRN1837539157</t>
+  </si>
+  <si>
+    <t>CRN1842868249</t>
+  </si>
+  <si>
+    <t>CRN1844775155</t>
+  </si>
+  <si>
+    <t>CRN1844935409</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>CRN1927515849</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>457.95</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>06-01-2024</t>
+  </si>
+  <si>
+    <t>20-12-2024</t>
+  </si>
+  <si>
+    <t>23-12-2024</t>
+  </si>
+  <si>
+    <t>17-12-2024</t>
+  </si>
+  <si>
+    <t>05-12-2024</t>
+  </si>
+  <si>
+    <t>11-12-2024</t>
+  </si>
+  <si>
+    <t>31-12-2024</t>
+  </si>
+  <si>
+    <t>04-12-2024</t>
+  </si>
+  <si>
+    <t>13-12-2024</t>
+  </si>
+  <si>
+    <t>24-12-2024</t>
+  </si>
+  <si>
+    <t>19-12-2024</t>
+  </si>
+  <si>
+    <t>28-12-2024</t>
+  </si>
+  <si>
+    <t>16-12-2024</t>
+  </si>
+  <si>
+    <t>30-12-2024</t>
+  </si>
+  <si>
+    <t>26-12-2024</t>
+  </si>
+  <si>
+    <t>07-12-2024</t>
+  </si>
+  <si>
+    <t>03-12-2024</t>
+  </si>
+  <si>
+    <t>14-12-2024</t>
+  </si>
+  <si>
+    <t>27-12-2024</t>
+  </si>
+  <si>
+    <t>21-12-2024</t>
+  </si>
+  <si>
+    <t>02-12-2024</t>
+  </si>
+  <si>
+    <t>10-12-2024</t>
+  </si>
+  <si>
+    <t>09-12-2024</t>
+  </si>
+  <si>
+    <t>06-12-2024</t>
+  </si>
+  <si>
+    <t>600004</t>
+  </si>
+  <si>
+    <t>600042</t>
+  </si>
+  <si>
+    <t>600096</t>
+  </si>
+  <si>
+    <t>600091</t>
+  </si>
+  <si>
+    <t>600098</t>
+  </si>
+  <si>
+    <t>600100</t>
+  </si>
+  <si>
+    <t>600088</t>
+  </si>
+  <si>
+    <t>600017</t>
+  </si>
+  <si>
+    <t>600119</t>
+  </si>
+  <si>
+    <t>600002</t>
+  </si>
+  <si>
+    <t>600005</t>
+  </si>
+  <si>
+    <t>600033</t>
+  </si>
+  <si>
+    <t>600014</t>
+  </si>
+  <si>
+    <t>600125</t>
+  </si>
+  <si>
+    <t>600117</t>
+  </si>
+  <si>
+    <t>600089</t>
+  </si>
+  <si>
+    <t>600095</t>
+  </si>
+  <si>
+    <t>600093</t>
+  </si>
+  <si>
+    <t>600018</t>
+  </si>
+  <si>
+    <t>600116</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +717,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,84 +1033,1602 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>File Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Invoice Number</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Delivery/Shipment Charges</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Main Date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sender Pincode</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Receiver Pincode</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Porter_courier_invoice_CR75867151_Jan 2024.pdf</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CR75867151</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>40.2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>06-01-2024</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>600042</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2">
+        <v>40.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2">
+        <v>600042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" t="s">
+        <v>202</v>
+      </c>
+      <c r="F49" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" t="s">
+        <v>202</v>
+      </c>
+      <c r="F50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" t="s">
+        <v>202</v>
+      </c>
+      <c r="F53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" t="s">
+        <v>137</v>
+      </c>
+      <c r="F58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" t="s">
+        <v>202</v>
+      </c>
+      <c r="F59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" t="s">
+        <v>137</v>
+      </c>
+      <c r="D71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" t="s">
+        <v>137</v>
+      </c>
+      <c r="F72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" t="s">
+        <v>137</v>
+      </c>
+      <c r="F73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" t="s">
+        <v>137</v>
+      </c>
+      <c r="F74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" t="s">
+        <v>137</v>
+      </c>
+      <c r="F75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76" t="s">
+        <v>137</v>
+      </c>
+      <c r="F76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" t="s">
+        <v>137</v>
+      </c>
+      <c r="F77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" t="s">
+        <v>137</v>
+      </c>
+      <c r="F80" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>